--- a/data/System.xlsx
+++ b/data/System.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2FCFC-C518-4AD0-86A9-0A783692AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="257">
   <si>
     <t>囚われのアルストロメリア</t>
   </si>
@@ -263,9 +268,6 @@
     <t>ゴム</t>
   </si>
   <si>
-    <t>Comdom</t>
-  </si>
-  <si>
     <t>指輪</t>
   </si>
   <si>
@@ -786,19 +788,17 @@
   </si>
   <si>
     <t>%1 was victorious!</t>
+  </si>
+  <si>
+    <t>Condom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -809,28 +809,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1120,19 +1129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1286,12 +1292,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1379,12 +1385,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1472,12 +1478,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1576,992 +1582,982 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
       <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>88</v>
       </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>102</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>109</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>113</v>
       </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>115</v>
       </c>
-      <c r="C62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="C64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>121</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>122</v>
       </c>
-      <c r="C65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
-      <c r="C66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>126</v>
       </c>
-      <c r="C67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>128</v>
       </c>
-      <c r="C68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>129</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>130</v>
       </c>
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>131</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="C70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>133</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>134</v>
       </c>
-      <c r="C71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>135</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>136</v>
       </c>
-      <c r="C72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>137</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>138</v>
       </c>
-      <c r="C73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>139</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>140</v>
       </c>
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>141</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>142</v>
       </c>
-      <c r="C75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>148</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="C78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>151</v>
       </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>153</v>
       </c>
-      <c r="C80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>154</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>156</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>157</v>
       </c>
-      <c r="C82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>159</v>
       </c>
-      <c r="C83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>160</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>161</v>
       </c>
-      <c r="C84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>163</v>
       </c>
-      <c r="C85" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>164</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>165</v>
       </c>
-      <c r="C86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>167</v>
       </c>
-      <c r="C87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>169</v>
       </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>171</v>
       </c>
-      <c r="C89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>173</v>
       </c>
-      <c r="C90" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>175</v>
       </c>
-      <c r="C91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>177</v>
       </c>
-      <c r="C92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>179</v>
       </c>
-      <c r="C93" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>181</v>
       </c>
-      <c r="C94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>182</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>183</v>
       </c>
-      <c r="C95" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>184</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>185</v>
       </c>
-      <c r="C96" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>186</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>187</v>
       </c>
-      <c r="C97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>188</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>189</v>
       </c>
-      <c r="C98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>190</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>191</v>
       </c>
-      <c r="C99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>192</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>193</v>
       </c>
-      <c r="C100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>194</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>195</v>
       </c>
-      <c r="C101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>196</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>197</v>
       </c>
-      <c r="C102" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>198</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>199</v>
       </c>
-      <c r="C103" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>201</v>
       </c>
-      <c r="C104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>202</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>203</v>
       </c>
-      <c r="C105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>204</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>205</v>
       </c>
-      <c r="C106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>206</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>207</v>
       </c>
-      <c r="C107" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
         <v>208</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>209</v>
       </c>
-      <c r="C108" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>211</v>
       </c>
-      <c r="C109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>212</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>213</v>
       </c>
-      <c r="C110" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B111" t="s">
-        <v>181</v>
-      </c>
-      <c r="C111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>216</v>
       </c>
-      <c r="C112" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
         <v>217</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>218</v>
       </c>
-      <c r="C113" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>219</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>220</v>
       </c>
-      <c r="C114" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>221</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>222</v>
       </c>
-      <c r="C115" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
         <v>223</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>224</v>
       </c>
-      <c r="C116" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>225</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>226</v>
       </c>
-      <c r="C117" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>227</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>228</v>
       </c>
-      <c r="C118" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
         <v>229</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>230</v>
       </c>
-      <c r="C119" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>231</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>232</v>
       </c>
-      <c r="C120" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
         <v>235</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>236</v>
       </c>
-      <c r="C123" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
         <v>238</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>239</v>
       </c>
-      <c r="C125" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
         <v>241</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>242</v>
       </c>
-      <c r="C127" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
         <v>246</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>247</v>
       </c>
-      <c r="C131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
         <v>248</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>249</v>
       </c>
-      <c r="C132" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
         <v>251</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>252</v>
       </c>
-      <c r="C134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
         <v>253</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>254</v>
       </c>
-      <c r="C135" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>255</v>
       </c>
-      <c r="B136" t="s">
-        <v>256</v>
-      </c>
       <c r="C136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>